--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verhaarpaf/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verhaarpaf/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12907F42-9C1D-2E46-8BF1-827C01C99A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12048E28-CEB1-5640-95AB-743C905FB0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14320" xr2:uid="{BBE2D6F0-DBBF-0C47-A0DC-CFD18C5E0051}"/>
   </bookViews>
@@ -54,24 +54,6 @@
     <t>Weasley</t>
   </si>
   <si>
-    <t>Ebenezer</t>
-  </si>
-  <si>
-    <t>Scrooge</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
-    <t>Marley</t>
-  </si>
-  <si>
-    <t>Uriah</t>
-  </si>
-  <si>
-    <t>Heep</t>
-  </si>
-  <si>
     <t>Dodger</t>
   </si>
   <si>
@@ -124,6 +106,24 @@
   </si>
   <si>
     <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Cavatica</t>
+  </si>
+  <si>
+    <t>Beth</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Lennox</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,10 +539,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>4.5</v>
@@ -556,10 +556,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -590,10 +590,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>9</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>6.5</v>
@@ -641,10 +641,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -658,10 +658,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -675,10 +675,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>7.5</v>
@@ -692,10 +692,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -726,10 +726,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>5.5</v>
